--- a/experiment_results/SBFL_ONLY/Elevator/1Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Elevator/1Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -5693,10 +5693,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="D2">
-        <v>4.241071428571429</v>
+        <v>51.11607142857143</v>
       </c>
       <c r="E2">
         <v>448</v>
@@ -5710,10 +5710,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>55.80357142857143</v>
       </c>
       <c r="E3">
         <v>448</v>
@@ -5727,10 +5727,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>216</v>
+        <v>439</v>
       </c>
       <c r="D4">
-        <v>48.21428571428572</v>
+        <v>97.99107142857143</v>
       </c>
       <c r="E4">
         <v>448</v>
@@ -5744,10 +5744,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="D5">
-        <v>1.116071428571429</v>
+        <v>93.75</v>
       </c>
       <c r="E5">
         <v>448</v>
@@ -5761,10 +5761,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>88.16964285714286</v>
       </c>
       <c r="E6">
         <v>448</v>
@@ -5778,10 +5778,10 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>0.6696428571428571</v>
+        <v>33.03571428571428</v>
       </c>
       <c r="E7">
         <v>448</v>
@@ -5795,10 +5795,10 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="D8">
-        <v>0.2232142857142857</v>
+        <v>71.875</v>
       </c>
       <c r="E8">
         <v>448</v>
@@ -5812,10 +5812,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="D9">
-        <v>0.6696428571428571</v>
+        <v>43.75</v>
       </c>
       <c r="E9">
         <v>448</v>
@@ -5829,10 +5829,10 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="D10">
-        <v>1.116071428571429</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>448</v>
@@ -5846,10 +5846,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D11">
-        <v>0.2232142857142857</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>448</v>
@@ -5863,10 +5863,10 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="D12">
-        <v>0.2232142857142857</v>
+        <v>73.88392857142857</v>
       </c>
       <c r="E12">
         <v>448</v>
@@ -5897,10 +5897,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="D14">
-        <v>0.2232142857142857</v>
+        <v>39.28571428571428</v>
       </c>
       <c r="E14">
         <v>448</v>
@@ -5914,10 +5914,10 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c r="D15">
-        <v>1.339285714285714</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="E15">
         <v>448</v>
@@ -5931,10 +5931,10 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>399</v>
       </c>
       <c r="D16">
-        <v>2.232142857142857</v>
+        <v>89.0625</v>
       </c>
       <c r="E16">
         <v>448</v>
@@ -5948,10 +5948,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="D17">
-        <v>0.4464285714285714</v>
+        <v>29.01785714285715</v>
       </c>
       <c r="E17">
         <v>448</v>
@@ -5965,10 +5965,10 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>0.4464285714285714</v>
+        <v>24.55357142857143</v>
       </c>
       <c r="E18">
         <v>448</v>
@@ -6016,10 +6016,10 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="D21">
-        <v>0.4464285714285714</v>
+        <v>88.16964285714286</v>
       </c>
       <c r="E21">
         <v>448</v>
